--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,16 +123,52 @@
     <t>http://fhir.ch/ig/ch-elm/CodeSystem/ch-elm-results-completion-vs</t>
   </si>
   <si>
+    <t>100911-7</t>
+  </si>
+  <si>
+    <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
+  </si>
+  <si>
+    <t>related-to</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-camp-org</t>
+  </si>
+  <si>
+    <t>49614-1</t>
+  </si>
+  <si>
+    <t>Campylobacter sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>4992-4</t>
+  </si>
+  <si>
+    <t>Campylobacter sp rRNA [Presence] in Specimen by Probe</t>
+  </si>
+  <si>
+    <t>71429-5</t>
+  </si>
+  <si>
+    <t>Campylobacter sp DNA.diarrheagenic [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-camp-diar-org</t>
+  </si>
+  <si>
     <t>85827-4</t>
   </si>
   <si>
     <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
   </si>
   <si>
-    <t>related-to</t>
-  </si>
-  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cpe-org</t>
+  </si>
+  <si>
+    <t>97513-6</t>
+  </si>
+  <si>
+    <t>Campylobacter sp [Presence] in Specimen by Organism specific culture</t>
   </si>
 </sst>
 </file>
@@ -409,7 +445,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,6 +500,81 @@
       </c>
       <c r="E3" s="2"/>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This CH ELM concept map shows which leading codes have to be completed by an additional code. The target code shows the URL of the value set from which the completing codes for the expecting specimen must come from.</t>
+    <t>This CH ELM concept map shows which leading codes have to be completed by an additional code to specify the organism. The target code shows the URL of the value set containing the permitted codes for the organism specification.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -135,6 +135,63 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-camp-org</t>
   </si>
   <si>
+    <t>101219-4</t>
+  </si>
+  <si>
+    <t>Legionella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-leg-org</t>
+  </si>
+  <si>
+    <t>101427-3</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-shi-org</t>
+  </si>
+  <si>
+    <t>26621-3</t>
+  </si>
+  <si>
+    <t>Legionella sp Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>32781-7</t>
+  </si>
+  <si>
+    <t>Legionella sp Ag [Presence] in Urine</t>
+  </si>
+  <si>
+    <t>38394-3</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Urine by Organism specific culture</t>
+  </si>
+  <si>
+    <t>46454-5</t>
+  </si>
+  <si>
+    <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>46455-2</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>47085-6</t>
+  </si>
+  <si>
+    <t>Plasmodium sp DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mal-org</t>
+  </si>
+  <si>
     <t>49614-1</t>
   </si>
   <si>
@@ -147,6 +204,42 @@
     <t>Campylobacter sp rRNA [Presence] in Specimen by Probe</t>
   </si>
   <si>
+    <t>50687-3</t>
+  </si>
+  <si>
+    <t>Plasmodium sp Ag [Presence] in Blood</t>
+  </si>
+  <si>
+    <t>51587-4</t>
+  </si>
+  <si>
+    <t>Plasmodium sp [Presence] in Blood by Light microscopy</t>
+  </si>
+  <si>
+    <t>589-2</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Bronchial specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>590-0</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Sputum by Organism specific culture</t>
+  </si>
+  <si>
+    <t>593-4</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>70569-9</t>
+  </si>
+  <si>
+    <t>Plasmodium sp Ag [Identifier] in Blood by Rapid immunoassay</t>
+  </si>
+  <si>
     <t>71429-5</t>
   </si>
   <si>
@@ -154,6 +247,12 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-camp-diar-org</t>
+  </si>
+  <si>
+    <t>82300-5</t>
+  </si>
+  <si>
+    <t>Shigella sp [Presence] in Stool by Culture</t>
   </si>
   <si>
     <t>85827-4</t>
@@ -445,7 +544,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -511,52 +610,52 @@
         <v>38</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -571,9 +670,234 @@
         <v>38</v>
       </c>
       <c r="D8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="125">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,15 +123,24 @@
     <t>http://fhir.ch/ig/ch-elm/CodeSystem/ch-elm-results-completion-vs</t>
   </si>
   <si>
+    <t>46732-4</t>
+  </si>
+  <si>
+    <t>Francisella tularensis subtype [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>related-to</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-tul-org</t>
+  </si>
+  <si>
     <t>100911-7</t>
   </si>
   <si>
     <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
   </si>
   <si>
-    <t>related-to</t>
-  </si>
-  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-camp-org</t>
   </si>
   <si>
@@ -153,10 +162,28 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-shi-org</t>
   </si>
   <si>
-    <t>26621-3</t>
-  </si>
-  <si>
-    <t>Legionella sp Ag [Presence] in Specimen</t>
+    <t>104376-9</t>
+  </si>
+  <si>
+    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-org</t>
+  </si>
+  <si>
+    <t>14357-8</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Gram stain</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-men-org</t>
+  </si>
+  <si>
+    <t>24102-6</t>
+  </si>
+  <si>
+    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
   </si>
   <si>
     <t>32781-7</t>
@@ -165,10 +192,19 @@
     <t>Legionella sp Ag [Presence] in Urine</t>
   </si>
   <si>
-    <t>38394-3</t>
-  </si>
-  <si>
-    <t>Legionella sp identified in Urine by Organism specific culture</t>
+    <t>38353-9</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-pneu-org</t>
+  </si>
+  <si>
+    <t>43389-6</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Isolate by Organism specific culture</t>
   </si>
   <si>
     <t>46454-5</t>
@@ -192,6 +228,15 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mal-org</t>
   </si>
   <si>
+    <t>49609-1</t>
+  </si>
+  <si>
+    <t>Vibrio sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-chol-org</t>
+  </si>
+  <si>
     <t>49614-1</t>
   </si>
   <si>
@@ -216,6 +261,15 @@
     <t>Plasmodium sp [Presence] in Blood by Light microscopy</t>
   </si>
   <si>
+    <t>58473-0</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae serotype DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-haem-org</t>
+  </si>
+  <si>
     <t>589-2</t>
   </si>
   <si>
@@ -234,6 +288,48 @@
     <t>Legionella sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>60422-3</t>
+  </si>
+  <si>
+    <t>Measles virus genotype [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mea-org</t>
+  </si>
+  <si>
+    <t>6578-9</t>
+  </si>
+  <si>
+    <t>Vibrio sp identified in Blood by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6579-7</t>
+  </si>
+  <si>
+    <t>Vibrio sp identified in Stool by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6581-3</t>
+  </si>
+  <si>
+    <t>Vibrio sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6584-7</t>
+  </si>
+  <si>
+    <t>Virus identified in Specimen by Culture</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-virus-cult-org</t>
+  </si>
+  <si>
+    <t>6600-1</t>
+  </si>
+  <si>
+    <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>70569-9</t>
   </si>
   <si>
@@ -262,6 +358,30 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cpe-org</t>
+  </si>
+  <si>
+    <t>88585-5</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Lower respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>88588-9</t>
+  </si>
+  <si>
+    <t>Legionella sp DNA [Identifier] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>90066-2</t>
+  </si>
+  <si>
+    <t>Corynebacterium sp identified in Isolate by Organism specific culture</t>
+  </si>
+  <si>
+    <t>92786-3</t>
+  </si>
+  <si>
+    <t>Corynebacterium sp DNA [Presence] by NAA with probe detection in Positive blood culture</t>
   </si>
   <si>
     <t>97513-6</t>
@@ -544,7 +664,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,61 +760,61 @@
         <v>38</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>38</v>
@@ -706,100 +826,100 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>38</v>
@@ -811,10 +931,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>38</v>
@@ -826,78 +946,318 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E23" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,102 +123,102 @@
     <t>http://fhir.ch/ig/ch-elm/CodeSystem/ch-elm-results-completion-vs</t>
   </si>
   <si>
+    <t>100911-7</t>
+  </si>
+  <si>
+    <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
+  </si>
+  <si>
+    <t>related-to</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-camp-org</t>
+  </si>
+  <si>
+    <t>101219-4</t>
+  </si>
+  <si>
+    <t>Legionella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-leg-org</t>
+  </si>
+  <si>
+    <t>101427-3</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-shi-org</t>
+  </si>
+  <si>
+    <t>104376-9</t>
+  </si>
+  <si>
+    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-org</t>
+  </si>
+  <si>
+    <t>14357-8</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Gram stain</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-men-org</t>
+  </si>
+  <si>
+    <t>24102-6</t>
+  </si>
+  <si>
+    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
+  </si>
+  <si>
+    <t>32781-7</t>
+  </si>
+  <si>
+    <t>Legionella sp Ag [Presence] in Urine</t>
+  </si>
+  <si>
+    <t>38353-9</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-pneu-org</t>
+  </si>
+  <si>
+    <t>43389-6</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Isolate by Organism specific culture</t>
+  </si>
+  <si>
+    <t>46454-5</t>
+  </si>
+  <si>
+    <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>46455-2</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>46732-4</t>
   </si>
   <si>
     <t>Francisella tularensis subtype [Identifier] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>related-to</t>
-  </si>
-  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-tul-org</t>
   </si>
   <si>
-    <t>100911-7</t>
-  </si>
-  <si>
-    <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-camp-org</t>
-  </si>
-  <si>
-    <t>101219-4</t>
-  </si>
-  <si>
-    <t>Legionella sp DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-leg-org</t>
-  </si>
-  <si>
-    <t>101427-3</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-shi-org</t>
-  </si>
-  <si>
-    <t>104376-9</t>
-  </si>
-  <si>
-    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-org</t>
-  </si>
-  <si>
-    <t>14357-8</t>
-  </si>
-  <si>
-    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Gram stain</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-men-org</t>
-  </si>
-  <si>
-    <t>24102-6</t>
-  </si>
-  <si>
-    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
-  </si>
-  <si>
-    <t>32781-7</t>
-  </si>
-  <si>
-    <t>Legionella sp Ag [Presence] in Urine</t>
-  </si>
-  <si>
-    <t>38353-9</t>
-  </si>
-  <si>
-    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-pneu-org</t>
-  </si>
-  <si>
-    <t>43389-6</t>
-  </si>
-  <si>
-    <t>Streptococcus sp identified in Isolate by Organism specific culture</t>
-  </si>
-  <si>
-    <t>46454-5</t>
-  </si>
-  <si>
-    <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>46455-2</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
     <t>47085-6</t>
   </si>
   <si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6609-2</t>
+  </si>
+  <si>
+    <t>Listeria sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-lis-org</t>
   </si>
   <si>
     <t>70569-9</t>
@@ -664,7 +673,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -790,37 +799,37 @@
         <v>38</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="C9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="C10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -835,52 +844,52 @@
         <v>38</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>63</v>
-      </c>
       <c r="C12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>65</v>
-      </c>
       <c r="C13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="C14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -925,7 +934,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -940,7 +949,7 @@
         <v>38</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -1000,7 +1009,7 @@
         <v>38</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -1015,7 +1024,7 @@
         <v>38</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -1030,7 +1039,7 @@
         <v>38</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1135,22 +1144,22 @@
         <v>38</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -1165,22 +1174,22 @@
         <v>38</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -1195,69 +1204,84 @@
         <v>38</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E40" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="151">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -171,6 +171,15 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-men-org</t>
   </si>
   <si>
+    <t>17563-8</t>
+  </si>
+  <si>
+    <t>Salmonella sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sal-org</t>
+  </si>
+  <si>
     <t>24102-6</t>
   </si>
   <si>
@@ -192,6 +201,15 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-pneu-org</t>
   </si>
   <si>
+    <t>41625-5</t>
+  </si>
+  <si>
+    <t>Brucella sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-bru-org</t>
+  </si>
+  <si>
     <t>43389-6</t>
   </si>
   <si>
@@ -228,81 +246,96 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mal-org</t>
   </si>
   <si>
-    <t>49609-1</t>
-  </si>
-  <si>
-    <t>Vibrio sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+    <t>49612-5</t>
+  </si>
+  <si>
+    <t>Salmonella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>49614-1</t>
+  </si>
+  <si>
+    <t>Campylobacter sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>4992-4</t>
+  </si>
+  <si>
+    <t>Campylobacter sp rRNA [Presence] in Specimen by Probe</t>
+  </si>
+  <si>
+    <t>50687-3</t>
+  </si>
+  <si>
+    <t>Plasmodium sp Ag [Presence] in Blood</t>
+  </si>
+  <si>
+    <t>51587-4</t>
+  </si>
+  <si>
+    <t>Plasmodium sp [Presence] in Blood by Light microscopy</t>
+  </si>
+  <si>
+    <t>552-0</t>
+  </si>
+  <si>
+    <t>Brucella sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>58473-0</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae serotype DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-haem-org</t>
+  </si>
+  <si>
+    <t>589-2</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Bronchial specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>590-0</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Sputum by Organism specific culture</t>
+  </si>
+  <si>
+    <t>593-4</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>60422-3</t>
+  </si>
+  <si>
+    <t>Measles virus genotype [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mea-org</t>
+  </si>
+  <si>
+    <t>65756-9</t>
+  </si>
+  <si>
+    <t>Salmonella sp serovar [Type] in Isolate</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sal-org-complete</t>
+  </si>
+  <si>
+    <t>6578-9</t>
+  </si>
+  <si>
+    <t>Vibrio sp identified in Blood by Organism specific culture</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-chol-org</t>
   </si>
   <si>
-    <t>49614-1</t>
-  </si>
-  <si>
-    <t>Campylobacter sp DNA [Identifier] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>4992-4</t>
-  </si>
-  <si>
-    <t>Campylobacter sp rRNA [Presence] in Specimen by Probe</t>
-  </si>
-  <si>
-    <t>50687-3</t>
-  </si>
-  <si>
-    <t>Plasmodium sp Ag [Presence] in Blood</t>
-  </si>
-  <si>
-    <t>51587-4</t>
-  </si>
-  <si>
-    <t>Plasmodium sp [Presence] in Blood by Light microscopy</t>
-  </si>
-  <si>
-    <t>58473-0</t>
-  </si>
-  <si>
-    <t>Haemophilus influenzae serotype DNA [Identifier] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-haem-org</t>
-  </si>
-  <si>
-    <t>589-2</t>
-  </si>
-  <si>
-    <t>Legionella sp identified in Bronchial specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>590-0</t>
-  </si>
-  <si>
-    <t>Legionella sp identified in Sputum by Organism specific culture</t>
-  </si>
-  <si>
-    <t>593-4</t>
-  </si>
-  <si>
-    <t>Legionella sp identified in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>60422-3</t>
-  </si>
-  <si>
-    <t>Measles virus genotype [Identifier] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mea-org</t>
-  </si>
-  <si>
-    <t>6578-9</t>
-  </si>
-  <si>
-    <t>Vibrio sp identified in Blood by Organism specific culture</t>
-  </si>
-  <si>
     <t>6579-7</t>
   </si>
   <si>
@@ -354,12 +387,36 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-camp-diar-org</t>
   </si>
   <si>
+    <t>74037-3</t>
+  </si>
+  <si>
+    <t>Transmissible spongiform encephalopathy [Identifier] in Brain by Light microscopy</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cjd-org</t>
+  </si>
+  <si>
+    <t>75756-7</t>
+  </si>
+  <si>
+    <t>Bacteria identified in Isolate by MS.MALDI-TOF</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-maldi-tof-org</t>
+  </si>
+  <si>
     <t>82300-5</t>
   </si>
   <si>
     <t>Shigella sp [Presence] in Stool by Culture</t>
   </si>
   <si>
+    <t>82301-3</t>
+  </si>
+  <si>
+    <t>Salmonella sp [Presence] in Stool by Culture</t>
+  </si>
+  <si>
     <t>85827-4</t>
   </si>
   <si>
@@ -391,6 +448,18 @@
   </si>
   <si>
     <t>Corynebacterium sp DNA [Presence] by NAA with probe detection in Positive blood culture</t>
+  </si>
+  <si>
+    <t>93385-3</t>
+  </si>
+  <si>
+    <t>Salmonella sp DNA [Presence] by NAA with probe detection in Positive blood culture</t>
+  </si>
+  <si>
+    <t>97313-1</t>
+  </si>
+  <si>
+    <t>Salmonella sp DNA [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
     <t>97513-6</t>
@@ -673,7 +742,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -799,37 +868,37 @@
         <v>38</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -844,67 +913,67 @@
         <v>38</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -934,67 +1003,67 @@
         <v>38</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -1009,7 +1078,7 @@
         <v>38</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -1024,7 +1093,7 @@
         <v>38</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -1039,22 +1108,22 @@
         <v>38</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -1069,7 +1138,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -1084,7 +1153,7 @@
         <v>38</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -1099,189 +1168,324 @@
         <v>38</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E49" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="167">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -180,6 +180,15 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sal-org</t>
   </si>
   <si>
+    <t>22826-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A identified in Specimen by Bioassay</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-influenza-hxny-org</t>
+  </si>
+  <si>
     <t>24102-6</t>
   </si>
   <si>
@@ -201,6 +210,12 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-pneu-org</t>
   </si>
   <si>
+    <t>39025-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A hemagglutinin cDNA [Identifier] in Specimen by Sequencing</t>
+  </si>
+  <si>
     <t>41625-5</t>
   </si>
   <si>
@@ -270,6 +285,12 @@
     <t>Plasmodium sp Ag [Presence] in Blood</t>
   </si>
   <si>
+    <t>50697-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A Ag [Identifier] in Isolate</t>
+  </si>
+  <si>
     <t>51587-4</t>
   </si>
   <si>
@@ -309,6 +330,12 @@
     <t>Legionella sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>59423-4</t>
+  </si>
+  <si>
+    <t>Influenza virus A hemagglutinin type RNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>60422-3</t>
   </si>
   <si>
@@ -363,6 +390,12 @@
     <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>6604-3</t>
+  </si>
+  <si>
+    <t>Influenza virus identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>6609-2</t>
   </si>
   <si>
@@ -405,6 +438,15 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-maldi-tof-org</t>
   </si>
   <si>
+    <t>7899-8</t>
+  </si>
+  <si>
+    <t>Hantavirus RNA [Presence] in Serum by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-hanta-org</t>
+  </si>
+  <si>
     <t>82300-5</t>
   </si>
   <si>
@@ -424,6 +466,12 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cpe-org</t>
+  </si>
+  <si>
+    <t>86520-4</t>
+  </si>
+  <si>
+    <t>Hantavirus RNA [Presence] in Blood by NAA with probe detection</t>
   </si>
   <si>
     <t>88585-5</t>
@@ -742,7 +790,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -883,37 +931,37 @@
         <v>38</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -943,7 +991,7 @@
         <v>38</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -958,37 +1006,37 @@
         <v>38</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -1003,22 +1051,22 @@
         <v>38</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="C18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>54</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -1033,82 +1081,82 @@
         <v>38</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1123,7 +1171,7 @@
         <v>38</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -1138,7 +1186,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -1153,22 +1201,22 @@
         <v>38</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -1183,82 +1231,82 @@
         <v>38</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="B30" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="C30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="C33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="C34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -1273,142 +1321,142 @@
         <v>38</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="B36" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="C36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="C37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="B38" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="C38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="C44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="E44" s="2"/>
     </row>
@@ -1423,31 +1471,31 @@
         <v>38</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>38</v>
@@ -1459,33 +1507,138 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D49" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E56" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="157">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,18 +267,6 @@
     <t>Salmonella sp DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>49614-1</t>
-  </si>
-  <si>
-    <t>Campylobacter sp DNA [Identifier] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>4992-4</t>
-  </si>
-  <si>
-    <t>Campylobacter sp rRNA [Presence] in Specimen by Probe</t>
-  </si>
-  <si>
     <t>50687-3</t>
   </si>
   <si>
@@ -411,15 +399,6 @@
     <t>Plasmodium sp Ag [Identifier] in Blood by Rapid immunoassay</t>
   </si>
   <si>
-    <t>71429-5</t>
-  </si>
-  <si>
-    <t>Campylobacter sp DNA.diarrheagenic [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-camp-diar-org</t>
-  </si>
-  <si>
     <t>74037-3</t>
   </si>
   <si>
@@ -457,15 +436,6 @@
   </si>
   <si>
     <t>Salmonella sp [Presence] in Stool by Culture</t>
-  </si>
-  <si>
-    <t>85827-4</t>
-  </si>
-  <si>
-    <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cpe-org</t>
   </si>
   <si>
     <t>86520-4</t>
@@ -790,7 +760,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1111,7 +1081,7 @@
         <v>38</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -1126,7 +1096,7 @@
         <v>38</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -1156,7 +1126,7 @@
         <v>38</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1171,37 +1141,37 @@
         <v>38</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -1231,7 +1201,7 @@
         <v>38</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -1246,67 +1216,67 @@
         <v>38</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -1321,37 +1291,37 @@
         <v>38</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -1366,97 +1336,97 @@
         <v>38</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="E44" s="2"/>
     </row>
@@ -1471,174 +1441,114 @@
         <v>38</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="B46" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="C46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="B47" t="s" s="2">
-        <v>147</v>
-      </c>
       <c r="C47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="B48" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="C48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D53" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D54" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E56" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="169">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -135,6 +135,15 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-camp-org</t>
   </si>
   <si>
+    <t>101003-2</t>
+  </si>
+  <si>
+    <t>Monkeypox virus clade [Type] in Specimen by Sequencing</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mpox-org</t>
+  </si>
+  <si>
     <t>101219-4</t>
   </si>
   <si>
@@ -144,105 +153,93 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-leg-org</t>
   </si>
   <si>
-    <t>101427-3</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
+    <t>104376-9</t>
+  </si>
+  <si>
+    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-org</t>
+  </si>
+  <si>
+    <t>14357-8</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Gram stain</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-men-org</t>
+  </si>
+  <si>
+    <t>17563-8</t>
+  </si>
+  <si>
+    <t>Salmonella sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sal-org</t>
+  </si>
+  <si>
+    <t>22826-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A identified in Specimen by Bioassay</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-influenza-hxny-org</t>
+  </si>
+  <si>
+    <t>24102-6</t>
+  </si>
+  <si>
+    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
+  </si>
+  <si>
+    <t>32781-7</t>
+  </si>
+  <si>
+    <t>Legionella sp Ag [Presence] in Urine</t>
+  </si>
+  <si>
+    <t>38353-9</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-pneu-org</t>
+  </si>
+  <si>
+    <t>39025-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A hemagglutinin cDNA [Identifier] in Specimen by Sequencing</t>
+  </si>
+  <si>
+    <t>41625-5</t>
+  </si>
+  <si>
+    <t>Brucella sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-bru-org</t>
+  </si>
+  <si>
+    <t>43389-6</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Isolate by Organism specific culture</t>
+  </si>
+  <si>
+    <t>46454-5</t>
+  </si>
+  <si>
+    <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-shi-org</t>
   </si>
   <si>
-    <t>104376-9</t>
-  </si>
-  <si>
-    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-org</t>
-  </si>
-  <si>
-    <t>14357-8</t>
-  </si>
-  <si>
-    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Gram stain</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-men-org</t>
-  </si>
-  <si>
-    <t>17563-8</t>
-  </si>
-  <si>
-    <t>Salmonella sp identified in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sal-org</t>
-  </si>
-  <si>
-    <t>22826-2</t>
-  </si>
-  <si>
-    <t>Influenza virus A identified in Specimen by Bioassay</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-influenza-hxny-org</t>
-  </si>
-  <si>
-    <t>24102-6</t>
-  </si>
-  <si>
-    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
-  </si>
-  <si>
-    <t>32781-7</t>
-  </si>
-  <si>
-    <t>Legionella sp Ag [Presence] in Urine</t>
-  </si>
-  <si>
-    <t>38353-9</t>
-  </si>
-  <si>
-    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-pneu-org</t>
-  </si>
-  <si>
-    <t>39025-2</t>
-  </si>
-  <si>
-    <t>Influenza virus A hemagglutinin cDNA [Identifier] in Specimen by Sequencing</t>
-  </si>
-  <si>
-    <t>41625-5</t>
-  </si>
-  <si>
-    <t>Brucella sp DNA [Identifier] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-bru-org</t>
-  </si>
-  <si>
-    <t>43389-6</t>
-  </si>
-  <si>
-    <t>Streptococcus sp identified in Isolate by Organism specific culture</t>
-  </si>
-  <si>
-    <t>46454-5</t>
-  </si>
-  <si>
-    <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>46455-2</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
     <t>46732-4</t>
   </si>
   <si>
@@ -285,6 +282,39 @@
     <t>Plasmodium sp [Presence] in Blood by Light microscopy</t>
   </si>
   <si>
+    <t>534-8</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Cerebral spinal fluid by Organism specific culture</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-tub-org</t>
+  </si>
+  <si>
+    <t>539-7</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Sputum by Organism specific culture</t>
+  </si>
+  <si>
+    <t>540-5</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Tissue by Organism specific culture</t>
+  </si>
+  <si>
+    <t>541-3</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Urine by Organism specific culture</t>
+  </si>
+  <si>
+    <t>543-9</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>552-0</t>
   </si>
   <si>
@@ -484,6 +514,12 @@
   </si>
   <si>
     <t>Campylobacter sp [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>9823-6</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Bronchial specimen by Organism specific culture</t>
   </si>
 </sst>
 </file>
@@ -760,7 +796,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -931,7 +967,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -1006,232 +1042,232 @@
         <v>38</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -1246,37 +1282,37 @@
         <v>38</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B33" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="C33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="C34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -1306,37 +1342,37 @@
         <v>38</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -1351,22 +1387,22 @@
         <v>38</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -1381,52 +1417,52 @@
         <v>38</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="C42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="B43" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="C43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="C44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>54</v>
       </c>
       <c r="E44" s="2"/>
     </row>
@@ -1441,114 +1477,189 @@
         <v>38</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D52" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E57" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-organism-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
